--- a/pred_ohlcv/54_21/2019-11-01 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 BHP ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>2691.54939291</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3118.87478321</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3809.87478321</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4379.87478321</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -886,7 +886,7 @@
         <v>7707.29518321</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>7707.29518321</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>9072.895183209999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9572.895183209999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9744.19778321</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>9680.09778321</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>9645.69778321</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9675.497783209999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9619.411183209999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>9697.724583209998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>9698.004283209997</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>9679.885683209997</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>8660.306599339998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>8652.306599339998</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9749.606599339997</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>10460.60659934</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>9759.606599339997</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>9615.065499339997</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>9071.642899339997</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>8834.498999339998</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>8834.498999339998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>26830.90240191998</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>26896.69040191998</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>26838.89040191998</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>26138.89040191998</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>26411.09040191998</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>25826.35840191998</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>26517.35840191998</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>25692.35840191998</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>25554.65840191998</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>25254.65840191998</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>24954.65840191998</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>24722.65840191998</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>24538.65840191998</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>23661.65840191998</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>23222.65840191998</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>25658.65840191998</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>25576.63460191998</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>25073.79224523998</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>25126.59224523999</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 BHP ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>2691.54939291</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2553.54939291</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3118.87478321</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3809.87478321</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4379.87478321</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4594.87478321</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4594.87478321</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5660.87478321</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>6776.87478321</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>7572.87478321</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>7707.29518321</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>7707.29518321</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>9072.895183209999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9572.895183209999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9744.19778321</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>9680.09778321</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>9645.69778321</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9675.497783209999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9619.411183209999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>9697.724583209998</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>9698.004283209997</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>9679.885683209997</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>8660.306599339998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>8652.306599339998</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9749.606599339997</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>10460.60659934</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>9759.606599339997</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>9615.065499339997</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>9071.642899339997</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>8834.498999339998</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>8834.498999339998</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>27010.09210191998</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>27207.07530191998</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>26117.07530191998</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>25961.07530191998</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>26930.90240191998</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>26830.90240191998</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>26896.69040191998</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>26838.89040191998</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>26138.89040191998</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>26411.09040191998</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>25826.35840191998</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>26517.35840191998</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>25692.35840191998</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>25717.35840191998</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>25438.35840191998</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>25554.65840191998</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>25254.65840191998</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>24954.65840191998</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>24722.65840191998</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>24538.65840191998</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>23661.65840191998</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>23222.65840191998</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>25658.65840191998</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>25576.63460191998</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>25073.79224523998</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>25100.19224523998</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>25126.59224523999</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>25126.59224523999</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>24618.69224523998</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
